--- a/src/test/java/excelFiles/releaseNotes.xlsx
+++ b/src/test/java/excelFiles/releaseNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CucumberProject\src\test\java\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D0D4D7-2F1F-487B-8FB8-1BA484C051D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8771AB-8D3B-43D7-8353-71DF2E38D302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>SYSTEM</t>
   </si>
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +387,7 @@
     <col min="3" max="3" width="90.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -406,6 +406,9 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
